--- a/po_analysis_by_asin/B0BF7CL99N_po_data.xlsx
+++ b/po_analysis_by_asin/B0BF7CL99N_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,95 +452,95 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>96</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>300</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45341</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45348</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45362</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>192</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45376</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -548,137 +548,449 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45390</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>184</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45397</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45404</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45411</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45418</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>104</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45425</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45432</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>176</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45446</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45453</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>96</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45460</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>48</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45467</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>32</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45474</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45481</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>72</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45488</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45516</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45523</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>104</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45558</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B30" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B69" t="n">
         <v>192</v>
       </c>
     </row>
@@ -693,7 +1005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,73 +1027,169 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>432</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>444</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>340</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>352</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>192</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>160</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>184</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B22" t="n">
         <v>192</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BF7CL99N_po_data.xlsx
+++ b/po_analysis_by_asin/B0BF7CL99N_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,68 +575,68 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45095.99999999999</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45102.99999999999</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45109.99999999999</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>48</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>184</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>284</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>136</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45144.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>56</v>
@@ -644,143 +644,143 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45151.99999999999</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>168</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45165.99999999999</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45172.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>88</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>84</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>144</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45305.99999999999</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B43" t="n">
         <v>120</v>
@@ -788,71 +788,71 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45319.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>24</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>300</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45347.99999999999</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45354.99999999999</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>48</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>128</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>192</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>20</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B52" t="n">
         <v>8</v>
@@ -860,137 +860,121 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>184</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>104</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>176</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>45529.99999999999</v>
-      </c>
-      <c r="B68" t="n">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>45564.99999999999</v>
-      </c>
-      <c r="B69" t="n">
         <v>192</v>
       </c>
     </row>
@@ -1070,7 +1054,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1078,7 +1062,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>720</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">

--- a/po_analysis_by_asin/B0BF7CL99N_po_data.xlsx
+++ b/po_analysis_by_asin/B0BF7CL99N_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1006,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1175,6 +1176,1083 @@
       </c>
       <c r="B22" t="n">
         <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>52</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-20.99848901921702</v>
+      </c>
+      <c r="D2" t="n">
+        <v>121.5955254002123</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>53</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-21.25030725646484</v>
+      </c>
+      <c r="D3" t="n">
+        <v>126.7630671880579</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-19.21252364849919</v>
+      </c>
+      <c r="D4" t="n">
+        <v>125.2755783868481</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>56</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-15.48969759150752</v>
+      </c>
+      <c r="D5" t="n">
+        <v>133.7283970731424</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>56</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-15.1355135170434</v>
+      </c>
+      <c r="D6" t="n">
+        <v>133.7943857698895</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>57</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-16.49892224961599</v>
+      </c>
+      <c r="D7" t="n">
+        <v>127.1889818596016</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>57</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-11.34794395678288</v>
+      </c>
+      <c r="D8" t="n">
+        <v>132.7599790517683</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>58</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5.391442197781912</v>
+      </c>
+      <c r="D9" t="n">
+        <v>128.9268748464916</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>58</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-16.3480195445139</v>
+      </c>
+      <c r="D10" t="n">
+        <v>130.3488242477637</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>59</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-14.13908794505816</v>
+      </c>
+      <c r="D11" t="n">
+        <v>128.7785441747996</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>59</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-11.35706018765515</v>
+      </c>
+      <c r="D12" t="n">
+        <v>130.7394198656195</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-12.08059213108936</v>
+      </c>
+      <c r="D13" t="n">
+        <v>133.5954265124785</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>61</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-9.566498308665377</v>
+      </c>
+      <c r="D14" t="n">
+        <v>135.5852685630874</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>61</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-8.747925687957899</v>
+      </c>
+      <c r="D15" t="n">
+        <v>137.4411620290095</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>62</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.061560785003743</v>
+      </c>
+      <c r="D16" t="n">
+        <v>141.1592588562246</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>63</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-10.54996126515564</v>
+      </c>
+      <c r="D17" t="n">
+        <v>128.4414001755519</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>64</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-16.04046136605115</v>
+      </c>
+      <c r="D18" t="n">
+        <v>129.1481027665276</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>64</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.366052131173523</v>
+      </c>
+      <c r="D19" t="n">
+        <v>139.511715995806</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>65</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-12.9118267909601</v>
+      </c>
+      <c r="D20" t="n">
+        <v>134.4968443821462</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>66</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-8.514313927982837</v>
+      </c>
+      <c r="D21" t="n">
+        <v>136.1686661468753</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>66</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-7.870474639676005</v>
+      </c>
+      <c r="D22" t="n">
+        <v>140.3417571090607</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>67</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-12.07635906352437</v>
+      </c>
+      <c r="D23" t="n">
+        <v>138.7011363260752</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>67</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.958295725175137</v>
+      </c>
+      <c r="D24" t="n">
+        <v>137.5973509691134</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>68</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-4.619473033767568</v>
+      </c>
+      <c r="D25" t="n">
+        <v>142.7469447388963</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>69</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-8.705033211206905</v>
+      </c>
+      <c r="D26" t="n">
+        <v>139.8395926036491</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>69</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-4.337028293454381</v>
+      </c>
+      <c r="D27" t="n">
+        <v>140.3171041722277</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>70</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.484168767002346</v>
+      </c>
+      <c r="D28" t="n">
+        <v>139.2244685854036</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>71</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.08538266503827646</v>
+      </c>
+      <c r="D29" t="n">
+        <v>140.1103942990447</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>71</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.085124972742556</v>
+      </c>
+      <c r="D30" t="n">
+        <v>141.6621941856974</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>72</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-5.509939421693113</v>
+      </c>
+      <c r="D31" t="n">
+        <v>147.1963585037458</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>72</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-2.80944167420405</v>
+      </c>
+      <c r="D32" t="n">
+        <v>142.2569452327969</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>73</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.2280694937458957</v>
+      </c>
+      <c r="D33" t="n">
+        <v>147.4847333642974</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>74</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.676481847369051</v>
+      </c>
+      <c r="D34" t="n">
+        <v>149.7116848802706</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>74</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.438074031366477</v>
+      </c>
+      <c r="D35" t="n">
+        <v>142.2887908774609</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>75</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.455137648832554</v>
+      </c>
+      <c r="D36" t="n">
+        <v>151.6652772509728</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7.251699229675038</v>
+      </c>
+      <c r="D37" t="n">
+        <v>151.7126972364254</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>76</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.467202022707045</v>
+      </c>
+      <c r="D38" t="n">
+        <v>141.3335508995345</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>77</v>
+      </c>
+      <c r="C39" t="n">
+        <v>8.794344528569859</v>
+      </c>
+      <c r="D39" t="n">
+        <v>147.0856881594674</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>78</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8.573457193206369</v>
+      </c>
+      <c r="D40" t="n">
+        <v>150.6755539010194</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>78</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6.062526072946838</v>
+      </c>
+      <c r="D41" t="n">
+        <v>149.9916637894486</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>79</v>
+      </c>
+      <c r="C42" t="n">
+        <v>11.84270655259256</v>
+      </c>
+      <c r="D42" t="n">
+        <v>148.5972018980264</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>79</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7.412876836223893</v>
+      </c>
+      <c r="D43" t="n">
+        <v>154.9231107885403</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>80</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5.967766533493407</v>
+      </c>
+      <c r="D44" t="n">
+        <v>151.3017700317453</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>81</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10.07701484027931</v>
+      </c>
+      <c r="D45" t="n">
+        <v>157.0899320966641</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>81</v>
+      </c>
+      <c r="C46" t="n">
+        <v>19.41758487795244</v>
+      </c>
+      <c r="D46" t="n">
+        <v>159.8405946055595</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>82</v>
+      </c>
+      <c r="C47" t="n">
+        <v>12.64503171366688</v>
+      </c>
+      <c r="D47" t="n">
+        <v>154.3221762262638</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>82</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5.469864704602981</v>
+      </c>
+      <c r="D48" t="n">
+        <v>152.6786851634922</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>83</v>
+      </c>
+      <c r="C49" t="n">
+        <v>13.65271599359811</v>
+      </c>
+      <c r="D49" t="n">
+        <v>156.4894707915205</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>84</v>
+      </c>
+      <c r="C50" t="n">
+        <v>14.04317362639197</v>
+      </c>
+      <c r="D50" t="n">
+        <v>153.0952532833041</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>84</v>
+      </c>
+      <c r="C51" t="n">
+        <v>15.01587430148759</v>
+      </c>
+      <c r="D51" t="n">
+        <v>155.2448088029642</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>85</v>
+      </c>
+      <c r="C52" t="n">
+        <v>21.92019495270311</v>
+      </c>
+      <c r="D52" t="n">
+        <v>156.9663384244014</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>85</v>
+      </c>
+      <c r="C53" t="n">
+        <v>15.15663538372405</v>
+      </c>
+      <c r="D53" t="n">
+        <v>159.7915843486741</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>86</v>
+      </c>
+      <c r="C54" t="n">
+        <v>10.7977203989782</v>
+      </c>
+      <c r="D54" t="n">
+        <v>159.412831960436</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>86</v>
+      </c>
+      <c r="C55" t="n">
+        <v>17.44086884762388</v>
+      </c>
+      <c r="D55" t="n">
+        <v>163.1162718484794</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>87</v>
+      </c>
+      <c r="C56" t="n">
+        <v>14.01557505755938</v>
+      </c>
+      <c r="D56" t="n">
+        <v>156.6085415762335</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>87</v>
+      </c>
+      <c r="C57" t="n">
+        <v>13.6474052945418</v>
+      </c>
+      <c r="D57" t="n">
+        <v>163.915124980718</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>88</v>
+      </c>
+      <c r="C58" t="n">
+        <v>21.37554946990387</v>
+      </c>
+      <c r="D58" t="n">
+        <v>159.2773864408265</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>89</v>
+      </c>
+      <c r="C59" t="n">
+        <v>17.22237743230095</v>
+      </c>
+      <c r="D59" t="n">
+        <v>160.3872137282288</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>89</v>
+      </c>
+      <c r="C60" t="n">
+        <v>13.37515258311059</v>
+      </c>
+      <c r="D60" t="n">
+        <v>162.4117267397455</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>90</v>
+      </c>
+      <c r="C61" t="n">
+        <v>18.08788812665768</v>
+      </c>
+      <c r="D61" t="n">
+        <v>158.7214935500438</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>90</v>
+      </c>
+      <c r="C62" t="n">
+        <v>15.79072277458045</v>
+      </c>
+      <c r="D62" t="n">
+        <v>160.7363482395562</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>91</v>
+      </c>
+      <c r="C63" t="n">
+        <v>18.03371148589585</v>
+      </c>
+      <c r="D63" t="n">
+        <v>168.4038076741377</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>91</v>
+      </c>
+      <c r="C64" t="n">
+        <v>21.63806880961916</v>
+      </c>
+      <c r="D64" t="n">
+        <v>166.6603973099721</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>93</v>
+      </c>
+      <c r="C65" t="n">
+        <v>17.60066236081373</v>
+      </c>
+      <c r="D65" t="n">
+        <v>167.7642319517199</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>94</v>
+      </c>
+      <c r="C66" t="n">
+        <v>17.82814860246367</v>
+      </c>
+      <c r="D66" t="n">
+        <v>165.2367532751348</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>96</v>
+      </c>
+      <c r="C67" t="n">
+        <v>26.91905053443889</v>
+      </c>
+      <c r="D67" t="n">
+        <v>169.8883003047069</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>97</v>
+      </c>
+      <c r="C68" t="n">
+        <v>28.42096875143348</v>
+      </c>
+      <c r="D68" t="n">
+        <v>171.3323684043543</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>97</v>
+      </c>
+      <c r="C69" t="n">
+        <v>23.00541147544425</v>
+      </c>
+      <c r="D69" t="n">
+        <v>173.5968074135769</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>97</v>
+      </c>
+      <c r="C70" t="n">
+        <v>26.77746722112089</v>
+      </c>
+      <c r="D70" t="n">
+        <v>168.8904306308976</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>98</v>
+      </c>
+      <c r="C71" t="n">
+        <v>23.84029367308956</v>
+      </c>
+      <c r="D71" t="n">
+        <v>171.6489118482586</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>98</v>
+      </c>
+      <c r="C72" t="n">
+        <v>28.34753875805991</v>
+      </c>
+      <c r="D72" t="n">
+        <v>171.7706272074424</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>99</v>
+      </c>
+      <c r="C73" t="n">
+        <v>27.52557043921307</v>
+      </c>
+      <c r="D73" t="n">
+        <v>171.0143125585818</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>99</v>
+      </c>
+      <c r="C74" t="n">
+        <v>28.76978043840086</v>
+      </c>
+      <c r="D74" t="n">
+        <v>174.8399655734297</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>100</v>
+      </c>
+      <c r="C75" t="n">
+        <v>31.43841199105998</v>
+      </c>
+      <c r="D75" t="n">
+        <v>175.6042087793401</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BF7CL99N_po_data.xlsx
+++ b/po_analysis_by_asin/B0BF7CL99N_po_data.xlsx
@@ -1189,7 +1189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,16 +1208,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1226,12 +1216,6 @@
       <c r="B2" t="n">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
-        <v>-20.99848901921702</v>
-      </c>
-      <c r="D2" t="n">
-        <v>121.5955254002123</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1240,12 +1224,6 @@
       <c r="B3" t="n">
         <v>53</v>
       </c>
-      <c r="C3" t="n">
-        <v>-21.25030725646484</v>
-      </c>
-      <c r="D3" t="n">
-        <v>126.7630671880579</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1254,12 +1232,6 @@
       <c r="B4" t="n">
         <v>54</v>
       </c>
-      <c r="C4" t="n">
-        <v>-19.21252364849919</v>
-      </c>
-      <c r="D4" t="n">
-        <v>125.2755783868481</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1268,12 +1240,6 @@
       <c r="B5" t="n">
         <v>56</v>
       </c>
-      <c r="C5" t="n">
-        <v>-15.48969759150752</v>
-      </c>
-      <c r="D5" t="n">
-        <v>133.7283970731424</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1282,12 +1248,6 @@
       <c r="B6" t="n">
         <v>56</v>
       </c>
-      <c r="C6" t="n">
-        <v>-15.1355135170434</v>
-      </c>
-      <c r="D6" t="n">
-        <v>133.7943857698895</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1296,12 +1256,6 @@
       <c r="B7" t="n">
         <v>57</v>
       </c>
-      <c r="C7" t="n">
-        <v>-16.49892224961599</v>
-      </c>
-      <c r="D7" t="n">
-        <v>127.1889818596016</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1310,12 +1264,6 @@
       <c r="B8" t="n">
         <v>57</v>
       </c>
-      <c r="C8" t="n">
-        <v>-11.34794395678288</v>
-      </c>
-      <c r="D8" t="n">
-        <v>132.7599790517683</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1324,12 +1272,6 @@
       <c r="B9" t="n">
         <v>58</v>
       </c>
-      <c r="C9" t="n">
-        <v>-5.391442197781912</v>
-      </c>
-      <c r="D9" t="n">
-        <v>128.9268748464916</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1338,12 +1280,6 @@
       <c r="B10" t="n">
         <v>58</v>
       </c>
-      <c r="C10" t="n">
-        <v>-16.3480195445139</v>
-      </c>
-      <c r="D10" t="n">
-        <v>130.3488242477637</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1352,12 +1288,6 @@
       <c r="B11" t="n">
         <v>59</v>
       </c>
-      <c r="C11" t="n">
-        <v>-14.13908794505816</v>
-      </c>
-      <c r="D11" t="n">
-        <v>128.7785441747996</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1366,12 +1296,6 @@
       <c r="B12" t="n">
         <v>59</v>
       </c>
-      <c r="C12" t="n">
-        <v>-11.35706018765515</v>
-      </c>
-      <c r="D12" t="n">
-        <v>130.7394198656195</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1380,12 +1304,6 @@
       <c r="B13" t="n">
         <v>60</v>
       </c>
-      <c r="C13" t="n">
-        <v>-12.08059213108936</v>
-      </c>
-      <c r="D13" t="n">
-        <v>133.5954265124785</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1394,12 +1312,6 @@
       <c r="B14" t="n">
         <v>61</v>
       </c>
-      <c r="C14" t="n">
-        <v>-9.566498308665377</v>
-      </c>
-      <c r="D14" t="n">
-        <v>135.5852685630874</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1408,12 +1320,6 @@
       <c r="B15" t="n">
         <v>61</v>
       </c>
-      <c r="C15" t="n">
-        <v>-8.747925687957899</v>
-      </c>
-      <c r="D15" t="n">
-        <v>137.4411620290095</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1422,12 +1328,6 @@
       <c r="B16" t="n">
         <v>62</v>
       </c>
-      <c r="C16" t="n">
-        <v>-1.061560785003743</v>
-      </c>
-      <c r="D16" t="n">
-        <v>141.1592588562246</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1436,12 +1336,6 @@
       <c r="B17" t="n">
         <v>63</v>
       </c>
-      <c r="C17" t="n">
-        <v>-10.54996126515564</v>
-      </c>
-      <c r="D17" t="n">
-        <v>128.4414001755519</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1450,12 +1344,6 @@
       <c r="B18" t="n">
         <v>64</v>
       </c>
-      <c r="C18" t="n">
-        <v>-16.04046136605115</v>
-      </c>
-      <c r="D18" t="n">
-        <v>129.1481027665276</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1464,12 +1352,6 @@
       <c r="B19" t="n">
         <v>64</v>
       </c>
-      <c r="C19" t="n">
-        <v>-1.366052131173523</v>
-      </c>
-      <c r="D19" t="n">
-        <v>139.511715995806</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1478,12 +1360,6 @@
       <c r="B20" t="n">
         <v>65</v>
       </c>
-      <c r="C20" t="n">
-        <v>-12.9118267909601</v>
-      </c>
-      <c r="D20" t="n">
-        <v>134.4968443821462</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1492,12 +1368,6 @@
       <c r="B21" t="n">
         <v>66</v>
       </c>
-      <c r="C21" t="n">
-        <v>-8.514313927982837</v>
-      </c>
-      <c r="D21" t="n">
-        <v>136.1686661468753</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1506,12 +1376,6 @@
       <c r="B22" t="n">
         <v>66</v>
       </c>
-      <c r="C22" t="n">
-        <v>-7.870474639676005</v>
-      </c>
-      <c r="D22" t="n">
-        <v>140.3417571090607</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1520,12 +1384,6 @@
       <c r="B23" t="n">
         <v>67</v>
       </c>
-      <c r="C23" t="n">
-        <v>-12.07635906352437</v>
-      </c>
-      <c r="D23" t="n">
-        <v>138.7011363260752</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1534,12 +1392,6 @@
       <c r="B24" t="n">
         <v>67</v>
       </c>
-      <c r="C24" t="n">
-        <v>-4.958295725175137</v>
-      </c>
-      <c r="D24" t="n">
-        <v>137.5973509691134</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1548,12 +1400,6 @@
       <c r="B25" t="n">
         <v>68</v>
       </c>
-      <c r="C25" t="n">
-        <v>-4.619473033767568</v>
-      </c>
-      <c r="D25" t="n">
-        <v>142.7469447388963</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1562,12 +1408,6 @@
       <c r="B26" t="n">
         <v>69</v>
       </c>
-      <c r="C26" t="n">
-        <v>-8.705033211206905</v>
-      </c>
-      <c r="D26" t="n">
-        <v>139.8395926036491</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1576,12 +1416,6 @@
       <c r="B27" t="n">
         <v>69</v>
       </c>
-      <c r="C27" t="n">
-        <v>-4.337028293454381</v>
-      </c>
-      <c r="D27" t="n">
-        <v>140.3171041722277</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1590,12 +1424,6 @@
       <c r="B28" t="n">
         <v>70</v>
       </c>
-      <c r="C28" t="n">
-        <v>-1.484168767002346</v>
-      </c>
-      <c r="D28" t="n">
-        <v>139.2244685854036</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1604,12 +1432,6 @@
       <c r="B29" t="n">
         <v>71</v>
       </c>
-      <c r="C29" t="n">
-        <v>-0.08538266503827646</v>
-      </c>
-      <c r="D29" t="n">
-        <v>140.1103942990447</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1618,12 +1440,6 @@
       <c r="B30" t="n">
         <v>71</v>
       </c>
-      <c r="C30" t="n">
-        <v>-1.085124972742556</v>
-      </c>
-      <c r="D30" t="n">
-        <v>141.6621941856974</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1632,12 +1448,6 @@
       <c r="B31" t="n">
         <v>72</v>
       </c>
-      <c r="C31" t="n">
-        <v>-5.509939421693113</v>
-      </c>
-      <c r="D31" t="n">
-        <v>147.1963585037458</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1646,12 +1456,6 @@
       <c r="B32" t="n">
         <v>72</v>
       </c>
-      <c r="C32" t="n">
-        <v>-2.80944167420405</v>
-      </c>
-      <c r="D32" t="n">
-        <v>142.2569452327969</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1660,12 +1464,6 @@
       <c r="B33" t="n">
         <v>73</v>
       </c>
-      <c r="C33" t="n">
-        <v>-0.2280694937458957</v>
-      </c>
-      <c r="D33" t="n">
-        <v>147.4847333642974</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1674,12 +1472,6 @@
       <c r="B34" t="n">
         <v>74</v>
       </c>
-      <c r="C34" t="n">
-        <v>2.676481847369051</v>
-      </c>
-      <c r="D34" t="n">
-        <v>149.7116848802706</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1688,12 +1480,6 @@
       <c r="B35" t="n">
         <v>74</v>
       </c>
-      <c r="C35" t="n">
-        <v>4.438074031366477</v>
-      </c>
-      <c r="D35" t="n">
-        <v>142.2887908774609</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1702,12 +1488,6 @@
       <c r="B36" t="n">
         <v>75</v>
       </c>
-      <c r="C36" t="n">
-        <v>2.455137648832554</v>
-      </c>
-      <c r="D36" t="n">
-        <v>151.6652772509728</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1716,12 +1496,6 @@
       <c r="B37" t="n">
         <v>75</v>
       </c>
-      <c r="C37" t="n">
-        <v>7.251699229675038</v>
-      </c>
-      <c r="D37" t="n">
-        <v>151.7126972364254</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1730,12 +1504,6 @@
       <c r="B38" t="n">
         <v>76</v>
       </c>
-      <c r="C38" t="n">
-        <v>1.467202022707045</v>
-      </c>
-      <c r="D38" t="n">
-        <v>141.3335508995345</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1744,12 +1512,6 @@
       <c r="B39" t="n">
         <v>77</v>
       </c>
-      <c r="C39" t="n">
-        <v>8.794344528569859</v>
-      </c>
-      <c r="D39" t="n">
-        <v>147.0856881594674</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1758,12 +1520,6 @@
       <c r="B40" t="n">
         <v>78</v>
       </c>
-      <c r="C40" t="n">
-        <v>8.573457193206369</v>
-      </c>
-      <c r="D40" t="n">
-        <v>150.6755539010194</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1772,12 +1528,6 @@
       <c r="B41" t="n">
         <v>78</v>
       </c>
-      <c r="C41" t="n">
-        <v>6.062526072946838</v>
-      </c>
-      <c r="D41" t="n">
-        <v>149.9916637894486</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1786,12 +1536,6 @@
       <c r="B42" t="n">
         <v>79</v>
       </c>
-      <c r="C42" t="n">
-        <v>11.84270655259256</v>
-      </c>
-      <c r="D42" t="n">
-        <v>148.5972018980264</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1800,12 +1544,6 @@
       <c r="B43" t="n">
         <v>79</v>
       </c>
-      <c r="C43" t="n">
-        <v>7.412876836223893</v>
-      </c>
-      <c r="D43" t="n">
-        <v>154.9231107885403</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1814,12 +1552,6 @@
       <c r="B44" t="n">
         <v>80</v>
       </c>
-      <c r="C44" t="n">
-        <v>5.967766533493407</v>
-      </c>
-      <c r="D44" t="n">
-        <v>151.3017700317453</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1828,12 +1560,6 @@
       <c r="B45" t="n">
         <v>81</v>
       </c>
-      <c r="C45" t="n">
-        <v>10.07701484027931</v>
-      </c>
-      <c r="D45" t="n">
-        <v>157.0899320966641</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1842,12 +1568,6 @@
       <c r="B46" t="n">
         <v>81</v>
       </c>
-      <c r="C46" t="n">
-        <v>19.41758487795244</v>
-      </c>
-      <c r="D46" t="n">
-        <v>159.8405946055595</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1856,12 +1576,6 @@
       <c r="B47" t="n">
         <v>82</v>
       </c>
-      <c r="C47" t="n">
-        <v>12.64503171366688</v>
-      </c>
-      <c r="D47" t="n">
-        <v>154.3221762262638</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1870,12 +1584,6 @@
       <c r="B48" t="n">
         <v>82</v>
       </c>
-      <c r="C48" t="n">
-        <v>5.469864704602981</v>
-      </c>
-      <c r="D48" t="n">
-        <v>152.6786851634922</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1884,12 +1592,6 @@
       <c r="B49" t="n">
         <v>83</v>
       </c>
-      <c r="C49" t="n">
-        <v>13.65271599359811</v>
-      </c>
-      <c r="D49" t="n">
-        <v>156.4894707915205</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1898,12 +1600,6 @@
       <c r="B50" t="n">
         <v>84</v>
       </c>
-      <c r="C50" t="n">
-        <v>14.04317362639197</v>
-      </c>
-      <c r="D50" t="n">
-        <v>153.0952532833041</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1912,12 +1608,6 @@
       <c r="B51" t="n">
         <v>84</v>
       </c>
-      <c r="C51" t="n">
-        <v>15.01587430148759</v>
-      </c>
-      <c r="D51" t="n">
-        <v>155.2448088029642</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1926,12 +1616,6 @@
       <c r="B52" t="n">
         <v>85</v>
       </c>
-      <c r="C52" t="n">
-        <v>21.92019495270311</v>
-      </c>
-      <c r="D52" t="n">
-        <v>156.9663384244014</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1940,12 +1624,6 @@
       <c r="B53" t="n">
         <v>85</v>
       </c>
-      <c r="C53" t="n">
-        <v>15.15663538372405</v>
-      </c>
-      <c r="D53" t="n">
-        <v>159.7915843486741</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1954,12 +1632,6 @@
       <c r="B54" t="n">
         <v>86</v>
       </c>
-      <c r="C54" t="n">
-        <v>10.7977203989782</v>
-      </c>
-      <c r="D54" t="n">
-        <v>159.412831960436</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1968,12 +1640,6 @@
       <c r="B55" t="n">
         <v>86</v>
       </c>
-      <c r="C55" t="n">
-        <v>17.44086884762388</v>
-      </c>
-      <c r="D55" t="n">
-        <v>163.1162718484794</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1982,12 +1648,6 @@
       <c r="B56" t="n">
         <v>87</v>
       </c>
-      <c r="C56" t="n">
-        <v>14.01557505755938</v>
-      </c>
-      <c r="D56" t="n">
-        <v>156.6085415762335</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1996,12 +1656,6 @@
       <c r="B57" t="n">
         <v>87</v>
       </c>
-      <c r="C57" t="n">
-        <v>13.6474052945418</v>
-      </c>
-      <c r="D57" t="n">
-        <v>163.915124980718</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2010,12 +1664,6 @@
       <c r="B58" t="n">
         <v>88</v>
       </c>
-      <c r="C58" t="n">
-        <v>21.37554946990387</v>
-      </c>
-      <c r="D58" t="n">
-        <v>159.2773864408265</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2024,12 +1672,6 @@
       <c r="B59" t="n">
         <v>89</v>
       </c>
-      <c r="C59" t="n">
-        <v>17.22237743230095</v>
-      </c>
-      <c r="D59" t="n">
-        <v>160.3872137282288</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2038,12 +1680,6 @@
       <c r="B60" t="n">
         <v>89</v>
       </c>
-      <c r="C60" t="n">
-        <v>13.37515258311059</v>
-      </c>
-      <c r="D60" t="n">
-        <v>162.4117267397455</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2052,12 +1688,6 @@
       <c r="B61" t="n">
         <v>90</v>
       </c>
-      <c r="C61" t="n">
-        <v>18.08788812665768</v>
-      </c>
-      <c r="D61" t="n">
-        <v>158.7214935500438</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2066,12 +1696,6 @@
       <c r="B62" t="n">
         <v>90</v>
       </c>
-      <c r="C62" t="n">
-        <v>15.79072277458045</v>
-      </c>
-      <c r="D62" t="n">
-        <v>160.7363482395562</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2080,12 +1704,6 @@
       <c r="B63" t="n">
         <v>91</v>
       </c>
-      <c r="C63" t="n">
-        <v>18.03371148589585</v>
-      </c>
-      <c r="D63" t="n">
-        <v>168.4038076741377</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2094,12 +1712,6 @@
       <c r="B64" t="n">
         <v>91</v>
       </c>
-      <c r="C64" t="n">
-        <v>21.63806880961916</v>
-      </c>
-      <c r="D64" t="n">
-        <v>166.6603973099721</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2108,12 +1720,6 @@
       <c r="B65" t="n">
         <v>93</v>
       </c>
-      <c r="C65" t="n">
-        <v>17.60066236081373</v>
-      </c>
-      <c r="D65" t="n">
-        <v>167.7642319517199</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2122,12 +1728,6 @@
       <c r="B66" t="n">
         <v>94</v>
       </c>
-      <c r="C66" t="n">
-        <v>17.82814860246367</v>
-      </c>
-      <c r="D66" t="n">
-        <v>165.2367532751348</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2136,12 +1736,6 @@
       <c r="B67" t="n">
         <v>96</v>
       </c>
-      <c r="C67" t="n">
-        <v>26.91905053443889</v>
-      </c>
-      <c r="D67" t="n">
-        <v>169.8883003047069</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2150,12 +1744,6 @@
       <c r="B68" t="n">
         <v>97</v>
       </c>
-      <c r="C68" t="n">
-        <v>28.42096875143348</v>
-      </c>
-      <c r="D68" t="n">
-        <v>171.3323684043543</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2164,12 +1752,6 @@
       <c r="B69" t="n">
         <v>97</v>
       </c>
-      <c r="C69" t="n">
-        <v>23.00541147544425</v>
-      </c>
-      <c r="D69" t="n">
-        <v>173.5968074135769</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2178,12 +1760,6 @@
       <c r="B70" t="n">
         <v>97</v>
       </c>
-      <c r="C70" t="n">
-        <v>26.77746722112089</v>
-      </c>
-      <c r="D70" t="n">
-        <v>168.8904306308976</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2192,12 +1768,6 @@
       <c r="B71" t="n">
         <v>98</v>
       </c>
-      <c r="C71" t="n">
-        <v>23.84029367308956</v>
-      </c>
-      <c r="D71" t="n">
-        <v>171.6489118482586</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2206,12 +1776,6 @@
       <c r="B72" t="n">
         <v>98</v>
       </c>
-      <c r="C72" t="n">
-        <v>28.34753875805991</v>
-      </c>
-      <c r="D72" t="n">
-        <v>171.7706272074424</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2220,12 +1784,6 @@
       <c r="B73" t="n">
         <v>99</v>
       </c>
-      <c r="C73" t="n">
-        <v>27.52557043921307</v>
-      </c>
-      <c r="D73" t="n">
-        <v>171.0143125585818</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2234,12 +1792,6 @@
       <c r="B74" t="n">
         <v>99</v>
       </c>
-      <c r="C74" t="n">
-        <v>28.76978043840086</v>
-      </c>
-      <c r="D74" t="n">
-        <v>174.8399655734297</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2247,12 +1799,6 @@
       </c>
       <c r="B75" t="n">
         <v>100</v>
-      </c>
-      <c r="C75" t="n">
-        <v>31.43841199105998</v>
-      </c>
-      <c r="D75" t="n">
-        <v>175.6042087793401</v>
       </c>
     </row>
   </sheetData>
